--- a/biology/Médecine/Bernard_Doray/Bernard_Doray.xlsx
+++ b/biology/Médecine/Bernard_Doray/Bernard_Doray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Doray, né à Sisteron le 3 août 1945 et mort le 3 juin 2021 à Ivry-sur-Seine[1],  est un psychiatre français, psychanalyste formé à l’anthropologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Doray, né à Sisteron le 3 août 1945 et mort le 3 juin 2021 à Ivry-sur-Seine,  est un psychiatre français, psychanalyste formé à l’anthropologie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Doray est l'auteur d'une thèse de doctorat intitulée Le lien, le corps, la mémoire : propositions pour une reprise actuelle du legs freudien, faite sous la direction de Michèle Bertrand et soutenue en 1998[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Doray est l'auteur d'une thèse de doctorat intitulée Le lien, le corps, la mémoire : propositions pour une reprise actuelle du legs freudien, faite sous la direction de Michèle Bertrand et soutenue en 1998.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le taylorisme, une folie rationnelle ?, Dunod, 1981.
-Avec Michèle Bertrand, Psychanalyse et sciences sociales. Pratiques, théories, institutions, La Découverte, « TAP / Psychanalyse et société », 1989,  (ISBN 9782707119032). DOI : 10.3917/dec.bertr.1989.01.[lire en ligne],[3].
+Avec Michèle Bertrand, Psychanalyse et sciences sociales. Pratiques, théories, institutions, La Découverte, « TAP / Psychanalyse et société », 1989,  (ISBN 9782707119032). DOI : 10.3917/dec.bertr.1989.01.[lire en ligne],.
 Toxicomanies et lien social en Afrique : les inter-dits de la modernité., L'Harmattan, 1994.
-L’inhumanitaire ou le cannibalisme guerrier à l’ère néolibérale, la Dispute, 2000[4],[5].
+L’inhumanitaire ou le cannibalisme guerrier à l’ère néolibérale, la Dispute, 2000,.
 La dignité. Les debouts de l’utopie, la Dispute, 2006.
 Psychopathologie du travail : de la resymbolisation, Éres, 2011.</t>
         </is>
